--- a/Jameson etal data/pnas.2305295120.sd03.xlsx
+++ b/Jameson etal data/pnas.2305295120.sd03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Jameson etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B32785B-8B86-8D4F-9DB7-DC23C9E53927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3C690-6D61-6249-8C3E-AEAFAD12FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{2A1517C7-48C4-DF46-B141-4229A1656DD9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A1517C7-48C4-DF46-B141-4229A1656DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 3A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -247,17 +247,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,14 +573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0B48C-CBB6-7441-A048-719C4B80E19C}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="17" max="18" width="18.1640625" style="5"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -628,10 +624,10 @@
       <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S2" t="s">
@@ -683,11 +679,11 @@
       <c r="P3">
         <v>0.51319892134650513</v>
       </c>
-      <c r="Q3" s="5" cm="1">
+      <c r="Q3" cm="1">
         <f t="array" ref="Q3:Q103">N3:N103-O3:O103</f>
         <v>0.59003072546929802</v>
       </c>
-      <c r="R3" s="5" cm="1">
+      <c r="R3" cm="1">
         <f t="array" ref="R3:R103">N3:N103-P3:P103</f>
         <v>0.48680107865349487</v>
       </c>
@@ -734,10 +730,10 @@
       <c r="P4">
         <v>0.57286312885230284</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4">
         <v>0.4272190501218972</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4">
         <v>0.42713687114769716</v>
       </c>
     </row>
@@ -783,10 +779,10 @@
       <c r="P5">
         <v>0.65017769081689425</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5">
         <v>0.35447850003752224</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5">
         <v>0.34982230918310575</v>
       </c>
     </row>
@@ -800,10 +796,10 @@
       <c r="P6">
         <v>0.46010120669521215</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6">
         <v>0.55068675971751091</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6">
         <v>0.53989879330478785</v>
       </c>
     </row>
@@ -840,10 +836,10 @@
         <f>STDEV(B7:D7)/SQRT(3)</f>
         <v>8.7987961142144706E-3</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
@@ -895,10 +891,10 @@
         <f>AVERAGE(I5,I9,I13,I17)</f>
         <v>0.54908523692772859</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>0.48060375883655715</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>0.45091476307227141</v>
       </c>
     </row>
@@ -950,18 +946,18 @@
         <f>AVERAGE(K5,K9,K13,K17)</f>
         <v>7.0042732167019178E-3</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
         <v>4.3883639851055901E-3</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <v>7.1896927200669524E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0</v>
       </c>
     </row>
@@ -1010,10 +1006,10 @@
         <f>P9/4</f>
         <v>1.7510683041754794E-3</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11">
         <v>1.0970909962763975E-3</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11">
         <v>1.7974231800167381E-3</v>
       </c>
     </row>
@@ -1050,10 +1046,10 @@
         <f>STDEV(B12:D12)/SQRT(3)</f>
         <v>1.0765565182497454E-3</v>
       </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>
@@ -1090,18 +1086,18 @@
         <f>STDEV(B13:D13)/SQRT(3)</f>
         <v>5.9233446241131315E-4</v>
       </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>0</v>
       </c>
     </row>
@@ -1138,10 +1134,10 @@
         <f>STDEV(B15:D15)/SQRT(3)</f>
         <v>5.5636718490978984E-4</v>
       </c>
-      <c r="Q15" s="5">
-        <v>0</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0</v>
       </c>
     </row>
@@ -1178,10 +1174,10 @@
         <f>STDEV(B16:D16)/SQRT(3)</f>
         <v>3.0810730454033579E-3</v>
       </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>0</v>
       </c>
     </row>
@@ -1218,26 +1214,26 @@
         <f>STDEV(B17:D17)/SQRT(3)</f>
         <v>6.3540013639700583E-4</v>
       </c>
-      <c r="Q17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>0</v>
       </c>
     </row>
@@ -1278,10 +1274,10 @@
       <c r="P20" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="5" t="e">
+      <c r="Q20" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R20" s="5" t="e">
+      <c r="R20" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S20" t="s">
@@ -1333,10 +1329,10 @@
       <c r="P21">
         <v>0.64429282735688531</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21">
         <v>0.45774776555996843</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21">
         <v>0.35570717264311469</v>
       </c>
     </row>
@@ -1382,10 +1378,10 @@
       <c r="P22">
         <v>0.57074388814329458</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22">
         <v>0.47049485468103958</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22">
         <v>0.42925611185670542</v>
       </c>
     </row>
@@ -1431,10 +1427,10 @@
       <c r="P23">
         <v>0.64129032359167437</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23">
         <v>0.48900226575309402</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23">
         <v>0.35870967640832563</v>
       </c>
     </row>
@@ -1448,10 +1444,10 @@
       <c r="P24">
         <v>0.59032790404073066</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24">
         <v>0.46406471982612407</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24">
         <v>0.40967209595926934</v>
       </c>
     </row>
@@ -1488,10 +1484,10 @@
         <f>STDEV(B25:D25)/SQRT(3)</f>
         <v>2.6251670978801295E-2</v>
       </c>
-      <c r="Q25" s="5">
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>0</v>
       </c>
     </row>
@@ -1528,10 +1524,10 @@
         <f>STDEV(B26:D26)/SQRT(3)</f>
         <v>6.3194825416449619E-3</v>
       </c>
-      <c r="Q26" s="5">
-        <v>0</v>
-      </c>
-      <c r="R26" s="5">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
     </row>
@@ -1583,10 +1579,10 @@
         <f>AVERAGE(I23,I27,I31,I35)</f>
         <v>0.61166373578314626</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <v>0.47032740145505647</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <v>0.38833626421685374</v>
       </c>
     </row>
@@ -1606,10 +1602,10 @@
         <f>AVERAGE(K23,K27,K31,K35)</f>
         <v>4.9011673991412189E-3</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28">
         <v>7.7096731675136299E-3</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28">
         <v>5.5822149030952594E-3</v>
       </c>
     </row>
@@ -1646,10 +1642,10 @@
         <f>STDEV(B29:D29)/SQRT(3)</f>
         <v>6.926704809839924E-3</v>
       </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>0</v>
       </c>
     </row>
@@ -1698,10 +1694,10 @@
         <f>P28/4</f>
         <v>1.2252918497853047E-3</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30">
         <v>1.9274182918784075E-3</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30">
         <v>1.3955537257738149E-3</v>
       </c>
     </row>
@@ -1738,18 +1734,18 @@
         <f>STDEV(B31:D31)/SQRT(3)</f>
         <v>6.1546596027714168E-3</v>
       </c>
-      <c r="Q31" s="5">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <v>0</v>
       </c>
     </row>
@@ -1786,10 +1782,10 @@
         <f>STDEV(B33:D33)/SQRT(3)</f>
         <v>5.7320037806123528E-3</v>
       </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>0</v>
       </c>
     </row>
@@ -1826,10 +1822,10 @@
         <f>STDEV(B34:D34)/SQRT(3)</f>
         <v>2.3639416478826079E-3</v>
       </c>
-      <c r="Q34" s="5">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>0</v>
       </c>
     </row>
@@ -1866,26 +1862,26 @@
         <f>STDEV(B35:D35)/SQRT(3)</f>
         <v>6.6508064307619049E-3</v>
       </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q36" s="5">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>0</v>
       </c>
     </row>
@@ -1926,10 +1922,10 @@
       <c r="P38" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="5" t="e">
+      <c r="Q38" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R38" s="5" t="e">
+      <c r="R38" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S38" t="s">
@@ -1981,10 +1977,10 @@
       <c r="P39">
         <v>0.56372120675390647</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39">
         <v>0.43941703306764157</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39">
         <v>0.43627879324609353</v>
       </c>
     </row>
@@ -2030,10 +2026,10 @@
       <c r="P40">
         <v>0.61405282422198948</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40">
         <v>0.39397689033969829</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40">
         <v>0.38594717577801052</v>
       </c>
     </row>
@@ -2079,18 +2075,18 @@
       <c r="P41">
         <v>0.55040255069009902</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41">
         <v>0.46181755578691885</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41">
         <v>0.44959744930990098</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>0</v>
       </c>
     </row>
@@ -2127,10 +2123,10 @@
         <f>STDEV(B43:D43)/SQRT(3)</f>
         <v>3.4863198282929279E-4</v>
       </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <v>0</v>
       </c>
     </row>
@@ -2182,10 +2178,10 @@
         <f>AVERAGE(I41,I45,I49)</f>
         <v>0.57605886055533162</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="3">
         <v>0.43173715973141957</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="3">
         <v>0.42394113944466838</v>
       </c>
     </row>
@@ -2237,18 +2233,18 @@
         <f>AVERAGE(K41,K45,K49)</f>
         <v>4.1226627529524195E-4</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45">
         <v>1.2765998662839719E-3</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45">
         <v>1.4205379967735211E-3</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <v>0</v>
       </c>
     </row>
@@ -2297,10 +2293,10 @@
         <f>P45/3</f>
         <v>1.3742209176508064E-4</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47">
         <v>4.2553328876132395E-4</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47">
         <v>4.7351266559117369E-4</v>
       </c>
     </row>
@@ -2337,10 +2333,10 @@
         <f>STDEV(B48:D48)/SQRT(3)</f>
         <v>2.0054540119307803E-4</v>
       </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <v>0</v>
       </c>
     </row>
@@ -2377,26 +2373,26 @@
         <f>STDEV(B49:D49)/SQRT(3)</f>
         <v>4.9315680153210481E-4</v>
       </c>
-      <c r="Q49" s="5">
-        <v>0</v>
-      </c>
-      <c r="R49" s="5">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q50" s="5">
-        <v>0</v>
-      </c>
-      <c r="R50" s="5">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q51" s="5">
-        <v>0</v>
-      </c>
-      <c r="R51" s="5">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>0</v>
       </c>
     </row>
@@ -2437,10 +2433,10 @@
       <c r="P52" t="s">
         <v>12</v>
       </c>
-      <c r="Q52" s="5" t="e">
+      <c r="Q52" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R52" s="5" t="e">
+      <c r="R52" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S52" t="s">
@@ -2492,10 +2488,10 @@
       <c r="P53">
         <v>0.65858350262885335</v>
       </c>
-      <c r="Q53" s="5">
+      <c r="Q53">
         <v>0.41686747195186336</v>
       </c>
-      <c r="R53" s="5">
+      <c r="R53">
         <v>0.34141649737114665</v>
       </c>
     </row>
@@ -2541,10 +2537,10 @@
       <c r="P54">
         <v>0.52698141803458809</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="Q54">
         <v>0.54287995301895342</v>
       </c>
-      <c r="R54" s="5">
+      <c r="R54">
         <v>0.47301858196541191</v>
       </c>
     </row>
@@ -2590,18 +2586,18 @@
       <c r="P55">
         <v>0.56492903322620514</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="Q55">
         <v>0.49556113337150742</v>
       </c>
-      <c r="R55" s="5">
+      <c r="R55">
         <v>0.43507096677379486</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q56" s="5">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <v>0</v>
       </c>
     </row>
@@ -2638,10 +2634,10 @@
         <f>STDEV(B57:D57)/SQRT(3)</f>
         <v>1.3886898258698964E-3</v>
       </c>
-      <c r="Q57" s="5">
-        <v>0</v>
-      </c>
-      <c r="R57" s="5">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>0</v>
       </c>
     </row>
@@ -2693,10 +2689,10 @@
         <f>AVERAGE(I55,I59,I63)</f>
         <v>0.58349798462988212</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="3">
         <v>0.48510285278077481</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="3">
         <v>0.41650201537011788</v>
       </c>
     </row>
@@ -2748,18 +2744,18 @@
         <f>AVERAGE(K55,K59,K63)</f>
         <v>7.0407595854716945E-4</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q59">
         <v>2.1696318650977322E-3</v>
       </c>
-      <c r="R59" s="5">
+      <c r="R59">
         <v>1.8676295245646912E-3</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q60" s="5">
-        <v>0</v>
-      </c>
-      <c r="R60" s="5">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <v>0</v>
       </c>
     </row>
@@ -2808,10 +2804,10 @@
         <f>P59/3</f>
         <v>2.3469198618238983E-4</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="Q61">
         <v>7.2321062169924412E-4</v>
       </c>
-      <c r="R61" s="5">
+      <c r="R61">
         <v>6.2254317485489698E-4</v>
       </c>
     </row>
@@ -2848,10 +2844,10 @@
         <f>STDEV(B62:D62)/SQRT(3)</f>
         <v>6.1159604944668281E-4</v>
       </c>
-      <c r="Q62" s="5">
-        <v>0</v>
-      </c>
-      <c r="R62" s="5">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <v>0</v>
       </c>
     </row>
@@ -2888,26 +2884,26 @@
         <f>STDEV(B63:D63)/SQRT(3)</f>
         <v>8.5804807570173723E-4</v>
       </c>
-      <c r="Q63" s="5">
-        <v>0</v>
-      </c>
-      <c r="R63" s="5">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q64" s="5">
-        <v>0</v>
-      </c>
-      <c r="R64" s="5">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q65" s="5">
-        <v>0</v>
-      </c>
-      <c r="R65" s="5">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <v>0</v>
       </c>
     </row>
@@ -2948,10 +2944,10 @@
       <c r="P66" t="s">
         <v>12</v>
       </c>
-      <c r="Q66" s="5" t="e">
+      <c r="Q66" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R66" s="5" t="e">
+      <c r="R66" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S66" t="s">
@@ -3003,10 +2999,10 @@
       <c r="P67">
         <v>0.49915645893102151</v>
       </c>
-      <c r="Q67" s="5">
+      <c r="Q67">
         <v>0.32126417040210364</v>
       </c>
-      <c r="R67" s="5">
+      <c r="R67">
         <v>0.50084354106897844</v>
       </c>
     </row>
@@ -3052,10 +3048,10 @@
       <c r="P68">
         <v>0.62253655241827821</v>
       </c>
-      <c r="Q68" s="5">
+      <c r="Q68">
         <v>0.49052772517548604</v>
       </c>
-      <c r="R68" s="5">
+      <c r="R68">
         <v>0.37746344758172179</v>
       </c>
     </row>
@@ -3101,18 +3097,18 @@
       <c r="P69">
         <v>0.65843204942900069</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="Q69">
         <v>0.47564173572849466</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R69">
         <v>0.34156795057099931</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q70" s="5">
-        <v>0</v>
-      </c>
-      <c r="R70" s="5">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <v>0</v>
       </c>
     </row>
@@ -3149,10 +3145,10 @@
         <f>STDEV(B71:D71)/SQRT(3)</f>
         <v>1.6686126569520781E-3</v>
       </c>
-      <c r="Q71" s="5">
-        <v>0</v>
-      </c>
-      <c r="R71" s="5">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <v>0</v>
       </c>
     </row>
@@ -3204,10 +3200,10 @@
         <f>AVERAGE(I69,I73,I77)</f>
         <v>0.59337502025943356</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="Q72" s="3">
         <v>0.42914454376869482</v>
       </c>
-      <c r="R72" s="4">
+      <c r="R72" s="3">
         <v>0.40662497974056644</v>
       </c>
     </row>
@@ -3259,18 +3255,18 @@
         <f>AVERAGE(K69,K73,K77)</f>
         <v>2.1511334412496717E-3</v>
       </c>
-      <c r="Q73" s="5">
+      <c r="Q73">
         <v>2.7153827821732395E-3</v>
       </c>
-      <c r="R73" s="5">
+      <c r="R73">
         <v>4.2957837396463729E-3</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q74" s="5">
-        <v>0</v>
-      </c>
-      <c r="R74" s="5">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>0</v>
       </c>
     </row>
@@ -3319,10 +3315,10 @@
         <f>P73/3</f>
         <v>7.1704448041655724E-4</v>
       </c>
-      <c r="Q75" s="5">
+      <c r="Q75">
         <v>9.051275940577465E-4</v>
       </c>
-      <c r="R75" s="5">
+      <c r="R75">
         <v>1.4319279132154576E-3</v>
       </c>
     </row>
@@ -3359,10 +3355,10 @@
         <f>STDEV(B76:D76)/SQRT(3)</f>
         <v>6.2656186684750996E-3</v>
       </c>
-      <c r="Q76" s="5">
-        <v>0</v>
-      </c>
-      <c r="R76" s="5">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
         <v>0</v>
       </c>
     </row>
@@ -3399,26 +3395,26 @@
         <f>STDEV(B77:D77)/SQRT(3)</f>
         <v>2.6441824657249383E-3</v>
       </c>
-      <c r="Q77" s="5">
-        <v>0</v>
-      </c>
-      <c r="R77" s="5">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q78" s="5">
-        <v>0</v>
-      </c>
-      <c r="R78" s="5">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q79" s="5">
-        <v>0</v>
-      </c>
-      <c r="R79" s="5">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>0</v>
       </c>
     </row>
@@ -3459,10 +3455,10 @@
       <c r="P80" t="s">
         <v>12</v>
       </c>
-      <c r="Q80" s="5" t="e">
+      <c r="Q80" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R80" s="5" t="e">
+      <c r="R80" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S80" t="s">
@@ -3514,10 +3510,10 @@
       <c r="P81">
         <v>0.76081371835940281</v>
       </c>
-      <c r="Q81" s="5">
+      <c r="Q81">
         <v>0.19412877779699778</v>
       </c>
-      <c r="R81" s="5">
+      <c r="R81">
         <v>0.23918628164059719</v>
       </c>
     </row>
@@ -3563,10 +3559,10 @@
       <c r="P82">
         <v>0.84612503466442446</v>
       </c>
-      <c r="Q82" s="5">
+      <c r="Q82">
         <v>0.11187971461706392</v>
       </c>
-      <c r="R82" s="5">
+      <c r="R82">
         <v>0.15387496533557554</v>
       </c>
     </row>
@@ -3612,18 +3608,18 @@
       <c r="P83">
         <v>0.81638662446850763</v>
       </c>
-      <c r="Q83" s="5">
+      <c r="Q83">
         <v>0.18732862233457193</v>
       </c>
-      <c r="R83" s="5">
+      <c r="R83">
         <v>0.18361337553149237</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q84" s="5">
-        <v>0</v>
-      </c>
-      <c r="R84" s="5">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
         <v>0</v>
       </c>
     </row>
@@ -3660,10 +3656,10 @@
         <f>STDEV(B85:D85)/SQRT(3)</f>
         <v>1.3324722739559462E-3</v>
       </c>
-      <c r="Q85" s="5">
-        <v>0</v>
-      </c>
-      <c r="R85" s="5">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>0</v>
       </c>
     </row>
@@ -3715,10 +3711,10 @@
         <f>AVERAGE(I83,I87,I91)</f>
         <v>0.80777512583077826</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="Q86" s="3">
         <v>0.16444570491621124</v>
       </c>
-      <c r="R86" s="4">
+      <c r="R86" s="3">
         <v>0.19222487416922174</v>
       </c>
     </row>
@@ -3770,18 +3766,18 @@
         <f>AVERAGE(K83,K87,K91)</f>
         <v>5.0898497386281198E-4</v>
       </c>
-      <c r="Q87" s="5">
+      <c r="Q87">
         <v>5.1104110044644115E-4</v>
       </c>
-      <c r="R87" s="5">
+      <c r="R87">
         <v>2.6204139943371296E-4</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q88" s="5">
-        <v>0</v>
-      </c>
-      <c r="R88" s="5">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
         <v>0</v>
       </c>
     </row>
@@ -3830,10 +3826,10 @@
         <f>P87/3</f>
         <v>1.6966165795427067E-4</v>
       </c>
-      <c r="Q89" s="5">
+      <c r="Q89">
         <v>1.7034703348214707E-4</v>
       </c>
-      <c r="R89" s="5">
+      <c r="R89">
         <v>8.734713314457096E-5</v>
       </c>
     </row>
@@ -3870,10 +3866,10 @@
         <f>STDEV(B90:D90)/SQRT(3)</f>
         <v>9.706237948537013E-5</v>
       </c>
-      <c r="Q90" s="5">
-        <v>0</v>
-      </c>
-      <c r="R90" s="5">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
         <v>0</v>
       </c>
     </row>
@@ -3910,26 +3906,26 @@
         <f>STDEV(B91:D91)/SQRT(3)</f>
         <v>5.4295256675828108E-5</v>
       </c>
-      <c r="Q91" s="5">
-        <v>0</v>
-      </c>
-      <c r="R91" s="5">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q92" s="5">
-        <v>0</v>
-      </c>
-      <c r="R92" s="5">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="Q93" s="5">
-        <v>0</v>
-      </c>
-      <c r="R93" s="5">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
         <v>0</v>
       </c>
     </row>
@@ -3970,10 +3966,10 @@
       <c r="P94" t="s">
         <v>12</v>
       </c>
-      <c r="Q94" s="5" t="e">
+      <c r="Q94" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="R94" s="5" t="e">
+      <c r="R94" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S94" t="s">
@@ -4025,10 +4021,10 @@
       <c r="P95">
         <v>0.88553006068194484</v>
       </c>
-      <c r="Q95" s="5">
+      <c r="Q95">
         <v>0.12164368294539607</v>
       </c>
-      <c r="R95" s="5">
+      <c r="R95">
         <v>0.11446993931805516</v>
       </c>
     </row>
@@ -4074,10 +4070,10 @@
       <c r="P96">
         <v>0.99681615391176359</v>
       </c>
-      <c r="Q96" s="5">
+      <c r="Q96">
         <v>4.7934036448714856E-2</v>
       </c>
-      <c r="R96" s="5">
+      <c r="R96">
         <v>3.1838460882364084E-3</v>
       </c>
     </row>
@@ -4123,18 +4119,18 @@
       <c r="P97">
         <v>1.0915893273852699</v>
       </c>
-      <c r="Q97" s="5">
+      <c r="Q97">
         <v>-7.9147031211671104E-2</v>
       </c>
-      <c r="R97" s="5">
+      <c r="R97">
         <v>-9.1589327385269925E-2</v>
       </c>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="Q98" s="5">
-        <v>0</v>
-      </c>
-      <c r="R98" s="5">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
         <v>0</v>
       </c>
     </row>
@@ -4171,10 +4167,10 @@
         <f>STDEV(B99:D99)/SQRT(3)</f>
         <v>4.7577347947463777E-3</v>
       </c>
-      <c r="Q99" s="5">
-        <v>0</v>
-      </c>
-      <c r="R99" s="5">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <v>0</v>
       </c>
     </row>
@@ -4226,10 +4222,10 @@
         <f>AVERAGE(I97,I101,I105)</f>
         <v>0.99131184732632605</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="3">
         <v>3.0143562727479867E-2</v>
       </c>
-      <c r="R100" s="4">
+      <c r="R100" s="3">
         <v>8.6881526736739545E-3</v>
       </c>
     </row>
@@ -4281,18 +4277,18 @@
         <f>AVERAGE(K97,K101,K105)</f>
         <v>3.2329178957216484E-3</v>
       </c>
-      <c r="Q101" s="5">
+      <c r="Q101">
         <v>-1.6092054894131604E-3</v>
       </c>
-      <c r="R101" s="5">
+      <c r="R101">
         <v>4.5515155801786628E-4</v>
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="Q102" s="5">
-        <v>0</v>
-      </c>
-      <c r="R102" s="5">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
         <v>0</v>
       </c>
     </row>
@@ -4341,10 +4337,10 @@
         <f>P101/3</f>
         <v>1.0776392985738829E-3</v>
       </c>
-      <c r="Q103" s="5">
+      <c r="Q103">
         <v>-5.3640182980438681E-4</v>
       </c>
-      <c r="R103" s="5">
+      <c r="R103">
         <v>1.5171718600595543E-4</v>
       </c>
     </row>
@@ -4425,7 +4421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB689C29-E56D-7B4C-B6B7-A00BAE5FA329}">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView topLeftCell="O11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
@@ -7756,18 +7752,18 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
@@ -8034,8 +8030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D758B3F3-008A-6D4E-9299-DDCB3E331CFC}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8050,18 +8046,18 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
@@ -8134,7 +8130,7 @@
         <f t="array" ref="H3:H12">D3:D12/(B3:B12)</f>
         <v>0.69505494505494514</v>
       </c>
-      <c r="I3" cm="1">
+      <c r="I3" s="3" cm="1">
         <f t="array" ref="I3:I12">1-H3:H12</f>
         <v>0.30494505494505486</v>
       </c>
@@ -8142,7 +8138,7 @@
         <f t="array" ref="J3:J12">(F3:F12)/(B3:B12)</f>
         <v>0.76282051282051289</v>
       </c>
-      <c r="K3" cm="1">
+      <c r="K3" s="3" cm="1">
         <f t="array" ref="K3:K12">1-J3:J12</f>
         <v>0.23717948717948711</v>
       </c>
@@ -8172,13 +8168,13 @@
       <c r="H4">
         <v>0.31133572800935594</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.68866427199064406</v>
       </c>
       <c r="J4">
         <v>0.62743296299390194</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>0.37256703700609806</v>
       </c>
     </row>
@@ -8207,13 +8203,13 @@
       <c r="H5">
         <v>0.34588549951015635</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.65411450048984365</v>
       </c>
       <c r="J5">
         <v>0.45827016274729654</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>0.54172983725270352</v>
       </c>
     </row>
@@ -8242,13 +8238,13 @@
       <c r="H6">
         <v>0.36184616805277409</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.63815383194722597</v>
       </c>
       <c r="J6">
         <v>0.40970294401126589</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>0.59029705598873417</v>
       </c>
     </row>
@@ -8277,13 +8273,13 @@
       <c r="H7">
         <v>0.29875887381078864</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.70124112618921131</v>
       </c>
       <c r="J7">
         <v>0.34813455460579623</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>0.65186544539420377</v>
       </c>
     </row>
@@ -8312,13 +8308,13 @@
       <c r="H8">
         <v>0.29396130269640103</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.70603869730359903</v>
       </c>
       <c r="J8">
         <v>0.37554341694558308</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.62445658305441687</v>
       </c>
     </row>
@@ -8347,13 +8343,13 @@
       <c r="H9">
         <v>0.28933240144502037</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.71066759855497963</v>
       </c>
       <c r="J9">
         <v>0.3926006138888456</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>0.6073993861111544</v>
       </c>
     </row>
@@ -8382,13 +8378,13 @@
       <c r="H10">
         <v>0.27546368485473399</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.72453631514526595</v>
       </c>
       <c r="J10">
         <v>0.38730686933181435</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>0.61269313066818565</v>
       </c>
     </row>
@@ -8417,13 +8413,13 @@
       <c r="H11">
         <v>9.6825754540598288E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.90317424545940173</v>
       </c>
       <c r="J11">
         <v>0.25770399305555558</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>0.74229600694444442</v>
       </c>
     </row>
@@ -8452,13 +8448,13 @@
       <c r="H12">
         <v>4.6188681098066597</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>-3.6188681098066597</v>
       </c>
       <c r="J12">
         <v>3.22676537336883</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>-2.22676537336883</v>
       </c>
     </row>

--- a/Jameson etal data/pnas.2305295120.sd03.xlsx
+++ b/Jameson etal data/pnas.2305295120.sd03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Jameson etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE3C690-6D61-6249-8C3E-AEAFAD12FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D6903-E378-AE48-AE2A-FF84E8D2F3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2A1517C7-48C4-DF46-B141-4229A1656DD9}"/>
+    <workbookView xWindow="20020" yWindow="7040" windowWidth="14400" windowHeight="17500" activeTab="3" xr2:uid="{2A1517C7-48C4-DF46-B141-4229A1656DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 3A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0B48C-CBB6-7441-A048-719C4B80E19C}">
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="L39" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8028,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D758B3F3-008A-6D4E-9299-DDCB3E331CFC}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8458,6 +8458,16 @@
         <v>-2.22676537336883</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <f>AVERAGE(H3:H11)</f>
+        <v>0.32982937310830818</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(J3:J11)</f>
+        <v>0.44661289226673023</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
